--- a/biology/Médecine/Hyperkinésie/Hyperkinésie.xlsx
+++ b/biology/Médecine/Hyperkinésie/Hyperkinésie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyperkin%C3%A9sie</t>
+          <t>Hyperkinésie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hyperkinésie (ou trouble hyperkinétique) est fréquemment associée à un « syndrome d'hyperactivité » (particulièrement diagnostiqué chez les enfants), à une « dysfonction cérébrale minime », à une « réaction hyperkinétique de l'enfance »[réf. souhaitée]. Bien que les symptômes et l'étiologie présumée varient, les comportements sont, en général, similaires. Ce terme est associé à de nombreux autres termes médicaux. 
 Les degrés typiques de symptômes diagnostiquant ce trouble incluent : hyperactivité des fonctions motrices (les enfants vont d'activité en activité) ; troubles du sommeil ; changements d'humeur (un jour il va bien, le jour suivant il ne va pas bien) ; maladresse ; comportement agressif ; impulsivité ; comportements et dérives antisociaux (non-respect des règles), et a fréquemment des problèmes de dyslexie (Stewart et al., 1966; Stewart, 1970; Wender, 1971). L'hyperkinésie est un terme récent dans le domaine médical ; il est souvent utilisé pour désigner tous les types de symptômes liés à ce trouble. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hyperkin%C3%A9sie</t>
+          <t>Hyperkinésie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Classifications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les troubles hyperkinétiques sont au diagnostic psychiatrique de la classification internationale des maladies (CIM-10)[1], l'équivalent du diagnostic consacré au trouble du déficit de l'attention exposé dans le manuel diagnostique et statistique des troubles mentaux (DSM-IV)[2].
-Le trouble hyperkinétique seul est classifié dans la CIM sous les termes de « perturbation de l'activité et de l'attention », « autres troubles hyperkinétiques » ou « trouble hyperkinétique, non spécifiés ». Plus tard, il est exprimé sous le terme de « syndrome hyperkinétique »[3]. Lorsqu'un trouble des conduites (comme défini par la CIM-10[3]) est également présent, la condition se traduit par « trouble des conduites hyperkinétique ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les troubles hyperkinétiques sont au diagnostic psychiatrique de la classification internationale des maladies (CIM-10), l'équivalent du diagnostic consacré au trouble du déficit de l'attention exposé dans le manuel diagnostique et statistique des troubles mentaux (DSM-IV).
+Le trouble hyperkinétique seul est classifié dans la CIM sous les termes de « perturbation de l'activité et de l'attention », « autres troubles hyperkinétiques » ou « trouble hyperkinétique, non spécifiés ». Plus tard, il est exprimé sous le terme de « syndrome hyperkinétique ». Lorsqu'un trouble des conduites (comme défini par la CIM-10) est également présent, la condition se traduit par « trouble des conduites hyperkinétique ».
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hyperkin%C3%A9sie</t>
+          <t>Hyperkinésie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Prévalence, genre...</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce trouble est six fois plus répandu chez les garçons que chez les filles[réf. souhaitée]. 
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hyperkin%C3%A9sie</t>
+          <t>Hyperkinésie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Soins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
